--- a/planilha/mensagemPersonalizada.xlsx
+++ b/planilha/mensagemPersonalizada.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Teste\Documents\GitHub\BotZap\planilha\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Teste\Documents\GitHub\botZapLivre\planilha\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E85814-408E-4544-AA4C-290330587408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{732E4404-DAA3-4E8F-980D-9B7599F2A69E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="16200" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="16200" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -365,7 +365,7 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/planilha/mensagemPersonalizada.xlsx
+++ b/planilha/mensagemPersonalizada.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Teste\Documents\GitHub\botZapLivre\planilha\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{732E4404-DAA3-4E8F-980D-9B7599F2A69E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6864AC82-6996-4323-BB47-9EA8BE3B9BF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="16200" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="16200" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -365,7 +365,7 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -387,7 +387,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>74999990520</v>
+        <v>7499990520</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -395,7 +395,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>74999990520</v>
+        <v>7499990520</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -403,7 +403,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>74999990520</v>
+        <v>7499990520</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -411,7 +411,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>74999990520</v>
+        <v>7499990520</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
